--- a/PD_Calculator.xlsx
+++ b/PD_Calculator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anusha/Desktop/Case Study/Submission/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B381C8-2ADB-1044-807C-F926715BBAF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4530E579-75B4-6841-837D-BC83E47E5F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{2FFA2DC7-0E50-034A-8F61-36880E4FFB37}"/>
   </bookViews>
@@ -111,7 +111,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -147,26 +147,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -571,7 +596,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="176" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -581,22 +606,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
+      <c r="B1" s="7"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
-      <c r="B2" s="6"/>
+      <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="4">
         <v>2024</v>
       </c>
     </row>
@@ -604,7 +629,7 @@
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="4">
         <v>1991</v>
       </c>
     </row>
@@ -612,7 +637,7 @@
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="4">
         <v>9500</v>
       </c>
     </row>
@@ -620,7 +645,7 @@
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="4">
         <v>27</v>
       </c>
     </row>
@@ -628,7 +653,7 @@
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -636,16 +661,16 @@
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
-      <c r="B9" s="6"/>
+      <c r="B9" s="4"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="7"/>
@@ -654,7 +679,7 @@
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="4">
         <f>IF(OR(ISBLANK(B3),ISBLANK(B4)),"",B3-B4)</f>
         <v>33</v>
       </c>
@@ -663,26 +688,30 @@
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="5">
         <f>IF(OR(ISBLANK(B3),ISBLANK(B4),ISBLANK(B5),ISBLANK(B6),ISBLANK(B7),ISBLANK(B8)),"Please fill all input fields",1/(1+EXP(-(0.1118+(B6*0.01796)+(B5*0.00009528)+(B11*-0.008217)+IF(B7="Prague",0.7526,IF(B7="Unknown",-0.1912,0))+IF(B8="Secondary",-1.657,IF(B8="University",-2.58,0))))))</f>
         <v>0.35510339523585915</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
-      <c r="B13" s="6"/>
+      <c r="B13" s="4"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="6" t="str">
-        <f>IF(B12="Please fill all input fields", "", IF(B5&gt;15000, IF(AND(B12&gt;=0.3, B12&lt;=0.7), "Unsure Default (High-Value)", IF(B12&gt;0.7, "Sure Default", "Sure Non-Default")), IF(AND(B12&gt;=0.4, B12&lt;=0.6), "Unsure Default", IF(B12&gt;0.6, "Sure Default", "Sure Non-Default"))))</f>
+      <c r="B14" s="4" t="str">
+        <f>IF(B12="Please fill all input fields", "", IF(B5&gt;15000, IF(AND(B12&gt;=0.3, B12&lt;=0.55), "Unsure Default (High-Value)", IF(B12&gt;0.55, "Sure Default", "Sure Non-Default")), IF(AND(B12&gt;=0.4, B12&lt;=0.6), "Unsure Default", IF(B12&gt;0.6, "Sure Default", "Sure Non-Default"))))</f>
         <v>Sure Non-Default</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A10:B10"/>
+  </mergeCells>
   <conditionalFormatting sqref="B12">
     <cfRule type="cellIs" dxfId="6" priority="8" operator="lessThan">
       <formula>0.3</formula>
